--- a/Assetlist_Spacechip.xlsx
+++ b/Assetlist_Spacechip.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="169">
   <si>
     <t>Asset Liste</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>Projekt: SpaceChip</t>
   </si>
 </sst>
 </file>
@@ -990,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,70 +1019,52 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1089,7 +1074,7 @@
         <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1112,36 +1097,36 @@
         <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>158</v>
+      <c r="E8" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>159</v>
+      <c r="E9" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
@@ -1158,13 +1143,13 @@
         <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>158</v>
+      <c r="E10" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4" t="s">
@@ -1181,13 +1166,13 @@
         <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>159</v>
+      <c r="E11" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
@@ -1197,13 +1182,25 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -1219,27 +1216,15 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1249,28 +1234,30 @@
         <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="10" t="s">
-        <v>159</v>
+      <c r="E15" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
+      <c r="G15" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
@@ -1288,46 +1275,44 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="5" t="s">
-        <v>10</v>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
+      <c r="B18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
+      <c r="G18" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
@@ -1335,11 +1320,11 @@
         <v>155</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="11" t="s">
-        <v>157</v>
+      <c r="E19" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4" t="s">
@@ -1347,22 +1332,22 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>146</v>
+      <c r="B20" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="10" t="s">
-        <v>159</v>
+      <c r="E20" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4" t="s">
@@ -1374,18 +1359,18 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="11" t="s">
-        <v>157</v>
+      <c r="E21" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4" t="s">
@@ -1398,46 +1383,46 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="6">
-        <v>43630</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>10</v>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="6"/>
+      <c r="E23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="6">
+        <v>43630</v>
+      </c>
       <c r="G23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1437,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>24</v>
@@ -1460,7 +1445,7 @@
       <c r="E24" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1472,43 +1457,43 @@
         <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
+      <c r="G25" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1521,7 +1506,7 @@
         <v>136</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>24</v>
@@ -1544,17 +1529,17 @@
         <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
-        <v>9</v>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1564,20 +1549,20 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="4" t="s">
-        <v>11</v>
+      <c r="G29" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1590,7 +1575,7 @@
         <v>137</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>24</v>
@@ -1613,10 +1598,10 @@
         <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>159</v>
@@ -1626,22 +1611,20 @@
         <v>11</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>159</v>
@@ -1651,7 +1634,9 @@
         <v>11</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1661,7 +1646,7 @@
         <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>24</v>
@@ -1678,23 +1663,23 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
-        <v>9</v>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1707,7 +1692,7 @@
         <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>25</v>
@@ -1727,10 +1712,10 @@
         <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>25</v>
@@ -1750,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>25</v>
@@ -1773,10 +1758,10 @@
         <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>25</v>
@@ -1799,7 +1784,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>25</v>
@@ -1819,10 +1804,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>25</v>
@@ -1839,13 +1824,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>25</v>
@@ -1868,7 +1853,7 @@
         <v>140</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>25</v>
@@ -1891,7 +1876,7 @@
         <v>140</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>25</v>
@@ -1907,13 +1892,25 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="12"/>
+      <c r="A44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
@@ -1939,10 +1936,8 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>51</v>
-      </c>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1952,80 +1947,70 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="9" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="5" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -2035,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>18</v>
@@ -2058,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>18</v>
@@ -2078,10 +2063,10 @@
         <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>18</v>
@@ -2101,16 +2086,16 @@
         <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>157</v>
+      <c r="E54" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4" t="s">
@@ -2121,13 +2106,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>18</v>
@@ -2150,13 +2135,13 @@
         <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>159</v>
+      <c r="E56" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="4" t="s">
@@ -2170,16 +2155,16 @@
         <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>157</v>
+      <c r="E57" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4" t="s">
@@ -2196,13 +2181,13 @@
         <v>137</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>159</v>
+      <c r="E58" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="4" t="s">
@@ -2216,16 +2201,16 @@
         <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>157</v>
+      <c r="E59" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="4" t="s">
@@ -2242,13 +2227,13 @@
         <v>138</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>159</v>
+      <c r="E60" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="4" t="s">
@@ -2259,51 +2244,49 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>157</v>
+        <v>18</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="5" t="s">
-        <v>10</v>
+      <c r="G61" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>158</v>
+      <c r="E62" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="4" t="s">
-        <v>11</v>
+      <c r="G62" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -2313,7 +2296,7 @@
         <v>140</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>25</v>
@@ -2326,7 +2309,9 @@
         <v>11</v>
       </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2336,7 +2321,7 @@
         <v>140</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>25</v>
@@ -2352,13 +2337,25 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
@@ -2384,10 +2381,8 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
-        <v>17</v>
-      </c>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2397,56 +2392,46 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2457,15 +2442,15 @@
         <v>135</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="9" t="s">
-        <v>158</v>
+      <c r="E71" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="5" t="s">
-        <v>10</v>
+      <c r="G71" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
@@ -2477,18 +2462,18 @@
         <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="9" t="s">
         <v>158</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" s="4" t="s">
-        <v>11</v>
+      <c r="G72" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
@@ -2503,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="9" t="s">
@@ -2520,36 +2505,36 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>159</v>
+        <v>26</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>18</v>
@@ -2566,28 +2551,26 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>158</v>
+        <v>18</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -2597,45 +2580,45 @@
         <v>136</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>159</v>
+        <v>25</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>158</v>
+        <v>18</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -2645,13 +2628,13 @@
         <v>137</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>157</v>
+      <c r="E79" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="4" t="s">
@@ -2659,7 +2642,7 @@
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,33 +2653,35 @@
         <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>159</v>
+        <v>25</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>159</v>
@@ -2706,9 +2691,7 @@
         <v>11</v>
       </c>
       <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -2718,7 +2701,7 @@
         <v>138</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>25</v>
@@ -2737,19 +2720,19 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>157</v>
+      <c r="E83" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="4" t="s">
@@ -2757,24 +2740,24 @@
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>93</v>
+      <c r="C84" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>158</v>
+      <c r="E84" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="4" t="s">
@@ -2785,21 +2768,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>157</v>
+      <c r="E85" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="4" t="s">
@@ -2815,10 +2798,10 @@
         <v>26</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>25</v>
@@ -2827,11 +2810,13 @@
         <v>157</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" s="5" t="s">
-        <v>10</v>
+      <c r="G86" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -2841,7 +2826,7 @@
         <v>139</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>25</v>
@@ -2861,10 +2846,10 @@
         <v>26</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>25</v>
@@ -2881,97 +2866,99 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>159</v>
+      <c r="E89" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="4" t="s">
-        <v>11</v>
+      <c r="G89" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H89" s="2"/>
-      <c r="I89" s="2" t="s">
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="17" t="s">
+    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>38</v>
+        <v>145</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="11" t="s">
-        <v>157</v>
+      <c r="E96" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4" t="s">
@@ -2985,14 +2972,14 @@
         <v>14</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="9" t="s">
-        <v>158</v>
+      <c r="E97" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4" t="s">
@@ -3006,10 +2993,10 @@
         <v>14</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="9" t="s">
@@ -3027,14 +3014,14 @@
         <v>14</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>114</v>
+        <v>148</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="10" t="s">
-        <v>159</v>
+      <c r="E99" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4" t="s">
@@ -3045,17 +3032,15 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="10" t="s">
         <v>159</v>
       </c>
@@ -3071,10 +3056,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>78</v>
@@ -3094,12 +3079,14 @@
         <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E102" s="10" t="s">
         <v>159</v>
       </c>
@@ -3112,19 +3099,17 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>158</v>
+        <v>124</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4" t="s">
@@ -3141,7 +3126,7 @@
         <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>78</v>
@@ -3164,13 +3149,13 @@
         <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>157</v>
+      <c r="E105" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="4" t="s">
@@ -3184,16 +3169,16 @@
         <v>13</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>158</v>
+      <c r="E106" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="4" t="s">
@@ -3210,7 +3195,7 @@
         <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>78</v>
@@ -3233,13 +3218,13 @@
         <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>157</v>
+      <c r="E108" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4" t="s">
@@ -3256,13 +3241,13 @@
         <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>158</v>
+      <c r="E109" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="4" t="s">
@@ -3276,10 +3261,10 @@
         <v>13</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>78</v>
@@ -3302,13 +3287,13 @@
         <v>138</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>157</v>
+      <c r="E111" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4" t="s">
@@ -3324,8 +3309,8 @@
       <c r="B112" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>77</v>
+      <c r="C112" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>78</v>
@@ -3345,16 +3330,16 @@
         <v>13</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>159</v>
+      <c r="E113" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="4" t="s">
@@ -3365,13 +3350,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>78</v>
@@ -3391,10 +3376,10 @@
         <v>26</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>78</v>
@@ -3414,10 +3399,10 @@
         <v>26</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>78</v>
@@ -3437,10 +3422,10 @@
         <v>26</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>78</v>
@@ -3460,10 +3445,10 @@
         <v>26</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>78</v>
@@ -3486,7 +3471,7 @@
         <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>78</v>
@@ -3506,10 +3491,10 @@
         <v>26</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>78</v>
@@ -3529,10 +3514,10 @@
         <v>26</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>78</v>
@@ -3549,19 +3534,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E122" s="11" t="s">
-        <v>157</v>
+      <c r="E122" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="4" t="s">
@@ -3569,6 +3554,29 @@
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
